--- a/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6901AB-3222-4E11-8586-2AA644166B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109E4622-D2AB-4C5F-BA96-B6DF6F843051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="774" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Pagos" sheetId="5" r:id="rId3"/>
-    <sheet name="CitaReservas" sheetId="3" r:id="rId4"/>
+    <sheet name="Factura" sheetId="3" r:id="rId4"/>
+    <sheet name="TipoPago" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -73,9 +74,6 @@
     <t>Contextro</t>
   </si>
   <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
     <t>Propio</t>
   </si>
   <si>
@@ -88,35 +86,78 @@
     <t>Combinacion única</t>
   </si>
   <si>
-    <t>CeraV</t>
-  </si>
-  <si>
-    <t>Lemar</t>
-  </si>
-  <si>
-    <t>MediPiel</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>Pagos</t>
   </si>
   <si>
-    <t>CitaReserva</t>
-  </si>
-  <si>
     <t>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</t>
   </si>
   <si>
     <t>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>TipoPago</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de los tipos de pagos que recibe el spa</t>
+  </si>
+  <si>
+    <t>Transacción 1</t>
+  </si>
+  <si>
+    <t>Transacción 2</t>
+  </si>
+  <si>
+    <t>Transacción N</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Tarjeta Credito</t>
+  </si>
+  <si>
+    <t>Tarjeta Debito</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Jhonathan Gomez</t>
+  </si>
+  <si>
+    <t>Luis Ospina</t>
+  </si>
+  <si>
+    <t>Cristian Ospina</t>
+  </si>
+  <si>
+    <t>30/03/2024</t>
+  </si>
+  <si>
+    <t>15/06/2024</t>
+  </si>
+  <si>
+    <t>01/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +167,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -177,10 +225,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -193,8 +242,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,10 +663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,30 +693,44 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -674,65 +741,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>B2</f>
+        <v>Transacción 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C4" si="0">B3</f>
+        <v>Transacción 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5" t="str">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>Transacción N</v>
       </c>
     </row>
   </sheetData>
@@ -742,28 +808,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2</f>
+        <v>Jhonathan Gomez-30/03/2024-100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
+        <v>Cristian Ospina-15/06/2024-200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Luis Ospina-01/12/2024-150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523D6FA1-039F-4205-9271-C83337BC0A81}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,11 +929,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>B2</f>
-        <v>CeraV</v>
+        <v>PSE</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,23 +941,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C4" si="0">B3</f>
-        <v>Lemar</v>
+        <f t="shared" ref="C3:C5" si="0">B3</f>
+        <v>Efectivo</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>MediPiel</v>
+        <v>Tarjeta Credito</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarjeta Debito</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109E4622-D2AB-4C5F-BA96-B6DF6F843051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FD967-F79D-4FC8-B7AC-6D6C79A1A037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="774" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="774" firstSheet="3" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>01/12/2024</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Pedicura Spa</t>
+  </si>
+  <si>
+    <t>Tratamiento Facial Antiedad</t>
+  </si>
+  <si>
+    <t>Masaje Relajante</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -229,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -242,8 +254,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -647,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -808,10 +819,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,10 +830,11 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -835,62 +847,74 @@
       <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>100000</v>
       </c>
-      <c r="E2" s="5" t="str">
-        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2</f>
-        <v>Jhonathan Gomez-30/03/2024-100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <v>Jhonathan Gomez-30/03/2024-100000-Pedicura Spa</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>200000</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
-        <v>Cristian Ospina-15/06/2024-200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <v>Cristian Ospina-15/06/2024-200000-Tratamiento Facial Antiedad</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>150000</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Luis Ospina-01/12/2024-150000</v>
+        <v>Luis Ospina-01/12/2024-150000-Masaje Relajante</v>
       </c>
     </row>
   </sheetData>
@@ -961,10 +985,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="str">

--- a/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FD967-F79D-4FC8-B7AC-6D6C79A1A037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F9E5D6-BB90-45B4-AE4F-79C905529F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="774" firstSheet="3" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="774" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -280,21 +280,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>543533</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19796</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429748</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EB9AE8-6CCF-3A28-9574-FC2E1BCA2C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC9F130-EBB0-0B3B-21BD-799C47A37EB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,8 +310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9525"/>
-          <a:ext cx="4353533" cy="5344271"/>
+          <a:off x="0" y="971550"/>
+          <a:ext cx="8049748" cy="2819794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F9E5D6-BB90-45B4-AE4F-79C905529F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA0577-02D4-4FA6-A9B4-C3F268DE1339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="774" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="774" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -281,20 +281,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>429748</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171844</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>744011</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC9F130-EBB0-0B3B-21BD-799C47A37EB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F7FA3B-7C5A-FBCF-4084-4A3831ED742E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,8 +310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="971550"/>
-          <a:ext cx="8049748" cy="2819794"/>
+          <a:off x="0" y="1009650"/>
+          <a:ext cx="7602011" cy="2800741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -754,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA0577-02D4-4FA6-A9B4-C3F268DE1339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB3A5EC-F95F-4C61-A511-C048C68C6E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="774" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -16,8 +16,6 @@
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Pagos" sheetId="5" r:id="rId3"/>
-    <sheet name="Factura" sheetId="3" r:id="rId4"/>
-    <sheet name="TipoPago" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -89,21 +87,9 @@
     <t>Pagos</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</t>
-  </si>
-  <si>
     <t>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</t>
   </si>
   <si>
-    <t>Factura</t>
-  </si>
-  <si>
-    <t>TipoPago</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la informacion de los tipos de pagos que recibe el spa</t>
-  </si>
-  <si>
     <t>Transacción 1</t>
   </si>
   <si>
@@ -111,65 +97,13 @@
   </si>
   <si>
     <t>Transacción N</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
-    <t>Tarjeta Credito</t>
-  </si>
-  <si>
-    <t>Tarjeta Debito</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Jhonathan Gomez</t>
-  </si>
-  <si>
-    <t>Luis Ospina</t>
-  </si>
-  <si>
-    <t>Cristian Ospina</t>
-  </si>
-  <si>
-    <t>30/03/2024</t>
-  </si>
-  <si>
-    <t>15/06/2024</t>
-  </si>
-  <si>
-    <t>01/12/2024</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Pedicura Spa</t>
-  </si>
-  <si>
-    <t>Tratamiento Facial Antiedad</t>
-  </si>
-  <si>
-    <t>Masaje Relajante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +113,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -237,11 +164,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,11 +180,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -280,21 +203,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>744011</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>391</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552846</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F7FA3B-7C5A-FBCF-4084-4A3831ED742E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C46AD7F-84BE-E321-233B-2A7B09FD6903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,8 +233,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1009650"/>
-          <a:ext cx="7602011" cy="2800741"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2838846" cy="2181529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,40 +630,12 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -755,7 +650,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>B2</f>
@@ -793,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
@@ -805,195 +700,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Transacción N</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="8">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
-        <v>Jhonathan Gomez-30/03/2024-100000-Pedicura Spa</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8">
-        <v>200000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
-        <v>Cristian Ospina-15/06/2024-200000-Tratamiento Facial Antiedad</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="8">
-        <v>150000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Luis Ospina-01/12/2024-150000-Masaje Relajante</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523D6FA1-039F-4205-9271-C83337BC0A81}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>B2</f>
-        <v>PSE</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C5" si="0">B3</f>
-        <v>Efectivo</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Tarjeta Credito</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Tarjeta Debito</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Pagos - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB3A5EC-F95F-4C61-A511-C048C68C6E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5DF96-6F7E-4DD9-92B1-98E806997B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="774" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
